--- a/Code/Results/Cases/Case_3_242/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_242/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9801684449047509</v>
+        <v>1.02737254708353</v>
       </c>
       <c r="D2">
-        <v>1.00107254103975</v>
+        <v>1.030327954868506</v>
       </c>
       <c r="E2">
-        <v>0.9889205841181564</v>
+        <v>1.027428060231597</v>
       </c>
       <c r="F2">
-        <v>0.9570853506511601</v>
+        <v>1.034689124345579</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.032904049047615</v>
+        <v>1.030976120730964</v>
       </c>
       <c r="J2">
-        <v>1.002958937959412</v>
+        <v>1.032530785546686</v>
       </c>
       <c r="K2">
-        <v>1.012516953858858</v>
+        <v>1.033139285544224</v>
       </c>
       <c r="L2">
-        <v>1.000536461736446</v>
+        <v>1.03024781829231</v>
       </c>
       <c r="M2">
-        <v>0.9691767996123803</v>
+        <v>1.037487877664863</v>
       </c>
       <c r="N2">
-        <v>1.004383254692313</v>
+        <v>1.033997097695105</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9873846022802639</v>
+        <v>1.028783061092676</v>
       </c>
       <c r="D3">
-        <v>1.006320914874534</v>
+        <v>1.031354870127484</v>
       </c>
       <c r="E3">
-        <v>0.9948871110844981</v>
+        <v>1.028640958637079</v>
       </c>
       <c r="F3">
-        <v>0.9695838135222213</v>
+        <v>1.03695936837596</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035133162741225</v>
+        <v>1.031307795876543</v>
       </c>
       <c r="J3">
-        <v>1.008225185236359</v>
+        <v>1.033579089267071</v>
       </c>
       <c r="K3">
-        <v>1.016873552259021</v>
+        <v>1.033973945271779</v>
       </c>
       <c r="L3">
-        <v>1.005585833017911</v>
+        <v>1.031267344645178</v>
       </c>
       <c r="M3">
-        <v>0.9806212589503629</v>
+        <v>1.039563476793635</v>
       </c>
       <c r="N3">
-        <v>1.009656980644439</v>
+        <v>1.035046890127009</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9919073963117284</v>
+        <v>1.029694348594015</v>
       </c>
       <c r="D4">
-        <v>1.009610678278834</v>
+        <v>1.032017906832686</v>
       </c>
       <c r="E4">
-        <v>0.9986331726302089</v>
+        <v>1.029424810083475</v>
       </c>
       <c r="F4">
-        <v>0.9772908833183566</v>
+        <v>1.03842187591042</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.036509777348564</v>
+        <v>1.031520100847797</v>
       </c>
       <c r="J4">
-        <v>1.011520401802012</v>
+        <v>1.034255621116603</v>
       </c>
       <c r="K4">
-        <v>1.019594478377493</v>
+        <v>1.034511983723498</v>
       </c>
       <c r="L4">
-        <v>1.008748122094926</v>
+        <v>1.031925517281157</v>
       </c>
       <c r="M4">
-        <v>0.9876713411558422</v>
+        <v>1.040899731321766</v>
       </c>
       <c r="N4">
-        <v>1.012956876795583</v>
+        <v>1.035724382729366</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9937758391278633</v>
+        <v>1.030077123729111</v>
       </c>
       <c r="D5">
-        <v>1.010969747940703</v>
+        <v>1.032296305930334</v>
       </c>
       <c r="E5">
-        <v>1.000182199113533</v>
+        <v>1.029754113152411</v>
       </c>
       <c r="F5">
-        <v>0.9804481166010282</v>
+        <v>1.039035196907896</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037073690479896</v>
+        <v>1.031608803767672</v>
       </c>
       <c r="J5">
-        <v>1.01288037987631</v>
+        <v>1.034539611768453</v>
       </c>
       <c r="K5">
-        <v>1.020716230382904</v>
+        <v>1.034737690674292</v>
       </c>
       <c r="L5">
-        <v>1.010053880640855</v>
+        <v>1.032201851930859</v>
       </c>
       <c r="M5">
-        <v>0.9905576991350796</v>
+        <v>1.041459900154175</v>
       </c>
       <c r="N5">
-        <v>1.014318786194738</v>
+        <v>1.036008776680516</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9940876856126508</v>
+        <v>1.030141374209926</v>
       </c>
       <c r="D6">
-        <v>1.011196578128185</v>
+        <v>1.032343030470986</v>
       </c>
       <c r="E6">
-        <v>1.00044081806579</v>
+        <v>1.029809391365653</v>
       </c>
       <c r="F6">
-        <v>0.9809735901666545</v>
+        <v>1.039138088301377</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037167530135801</v>
+        <v>1.031623665212082</v>
       </c>
       <c r="J6">
-        <v>1.013107283609713</v>
+        <v>1.034587270378905</v>
       </c>
       <c r="K6">
-        <v>1.020903316806024</v>
+        <v>1.034775559587805</v>
       </c>
       <c r="L6">
-        <v>1.010271775253546</v>
+        <v>1.032248228700479</v>
       </c>
       <c r="M6">
-        <v>0.9910379860972961</v>
+        <v>1.041553862573208</v>
       </c>
       <c r="N6">
-        <v>1.014546012157469</v>
+        <v>1.036056502971662</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9919324892934541</v>
+        <v>1.029699464541084</v>
       </c>
       <c r="D7">
-        <v>1.009628930463764</v>
+        <v>1.032021628150423</v>
       </c>
       <c r="E7">
-        <v>0.9986539702012887</v>
+        <v>1.029429211135862</v>
       </c>
       <c r="F7">
-        <v>0.9773333858771189</v>
+        <v>1.038430077047342</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.036517369452563</v>
+        <v>1.031521288257629</v>
       </c>
       <c r="J7">
-        <v>1.011538671463904</v>
+        <v>1.03425941746945</v>
       </c>
       <c r="K7">
-        <v>1.019609552533538</v>
+        <v>1.034515001527903</v>
       </c>
       <c r="L7">
-        <v>1.008765660873197</v>
+        <v>1.031929211090273</v>
       </c>
       <c r="M7">
-        <v>0.987710204159981</v>
+        <v>1.040907222536397</v>
       </c>
       <c r="N7">
-        <v>1.01297517240249</v>
+        <v>1.03572818447347</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9826388831707565</v>
+        <v>1.027849533117296</v>
       </c>
       <c r="D8">
-        <v>1.002869214639655</v>
+        <v>1.030675307949818</v>
       </c>
       <c r="E8">
-        <v>0.9909617852736473</v>
+        <v>1.027838170008886</v>
       </c>
       <c r="F8">
-        <v>0.9613933583736572</v>
+        <v>1.035457730655642</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033671604604737</v>
+        <v>1.031088692336402</v>
       </c>
       <c r="J8">
-        <v>1.004762967254286</v>
+        <v>1.032885438734724</v>
       </c>
       <c r="K8">
-        <v>1.014010460354293</v>
+        <v>1.0334217882787</v>
       </c>
       <c r="L8">
-        <v>1.002265592957976</v>
+        <v>1.030592691592625</v>
       </c>
       <c r="M8">
-        <v>0.9731229836891309</v>
+        <v>1.038190764435993</v>
       </c>
       <c r="N8">
-        <v>1.00618984591571</v>
+        <v>1.034352254531343</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9650302677678798</v>
+        <v>1.024578595164915</v>
       </c>
       <c r="D9">
-        <v>0.9900664937210744</v>
+        <v>1.028291632329255</v>
       </c>
       <c r="E9">
-        <v>0.9764450012929802</v>
+        <v>1.025026845076686</v>
       </c>
       <c r="F9">
-        <v>0.9299414837801691</v>
+        <v>1.030168673576329</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028104098756198</v>
+        <v>1.030308559249344</v>
       </c>
       <c r="J9">
-        <v>0.991881346570145</v>
+        <v>1.030450354759341</v>
       </c>
       <c r="K9">
-        <v>1.003322817692604</v>
+        <v>1.031479562551685</v>
       </c>
       <c r="L9">
-        <v>0.9899321636728567</v>
+        <v>1.028225639175893</v>
       </c>
       <c r="M9">
-        <v>0.9442836021670146</v>
+        <v>1.033350391973713</v>
       </c>
       <c r="N9">
-        <v>0.9932899318526551</v>
+        <v>1.031913712457406</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9522824731720174</v>
+        <v>1.022390029082764</v>
       </c>
       <c r="D10">
-        <v>0.9808040439984136</v>
+        <v>1.026694625936086</v>
       </c>
       <c r="E10">
-        <v>0.9659823452428066</v>
+        <v>1.023147106582645</v>
       </c>
       <c r="F10">
-        <v>0.9059003355042525</v>
+        <v>1.026605702730362</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.023936294243722</v>
+        <v>1.029776268973884</v>
       </c>
       <c r="J10">
-        <v>0.9825261345548584</v>
+        <v>1.028817237606626</v>
       </c>
       <c r="K10">
-        <v>0.9955287580742015</v>
+        <v>1.030173804330136</v>
       </c>
       <c r="L10">
-        <v>0.9809942174664811</v>
+        <v>1.026639264455772</v>
       </c>
       <c r="M10">
-        <v>0.9222053154669312</v>
+        <v>1.030085205260845</v>
       </c>
       <c r="N10">
-        <v>0.9839214343632491</v>
+        <v>1.030278276091014</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9464725414724349</v>
+        <v>1.021440368298322</v>
       </c>
       <c r="D11">
-        <v>0.9765841897602593</v>
+        <v>1.026001165208688</v>
       </c>
       <c r="E11">
-        <v>0.9612268715630166</v>
+        <v>1.022331772544813</v>
       </c>
       <c r="F11">
-        <v>0.894501817825066</v>
+        <v>1.025053602692837</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.021998075230639</v>
+        <v>1.029542841007108</v>
       </c>
       <c r="J11">
-        <v>0.9782550631174166</v>
+        <v>1.028107695006803</v>
       </c>
       <c r="K11">
-        <v>0.9919616293997691</v>
+        <v>1.029605736253679</v>
       </c>
       <c r="L11">
-        <v>0.9769190057846814</v>
+        <v>1.02595029725261</v>
       </c>
       <c r="M11">
-        <v>0.9117311142326816</v>
+        <v>1.028661766445323</v>
       </c>
       <c r="N11">
-        <v>0.9796442975144674</v>
+        <v>1.029567725859313</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9442654970321627</v>
+        <v>1.021087312861179</v>
       </c>
       <c r="D12">
-        <v>0.9749813660460132</v>
+        <v>1.025743284600251</v>
       </c>
       <c r="E12">
-        <v>0.9594225112737451</v>
+        <v>1.022028704888554</v>
       </c>
       <c r="F12">
-        <v>0.8900884490184033</v>
+        <v>1.024475638458145</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.021255208897303</v>
+        <v>1.029455689264823</v>
       </c>
       <c r="J12">
-        <v>0.9766314135093159</v>
+        <v>1.02784377311111</v>
       </c>
       <c r="K12">
-        <v>0.9906041098884188</v>
+        <v>1.02939432417669</v>
       </c>
       <c r="L12">
-        <v>0.975370709703286</v>
+        <v>1.025694068936446</v>
       </c>
       <c r="M12">
-        <v>0.9076748997202134</v>
+        <v>1.028131553481255</v>
       </c>
       <c r="N12">
-        <v>0.9780183421376881</v>
+        <v>1.029303429164256</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9447412312149807</v>
+        <v>1.021163058586881</v>
       </c>
       <c r="D13">
-        <v>0.9753268518715275</v>
+        <v>1.025798614467266</v>
       </c>
       <c r="E13">
-        <v>0.9598113472351207</v>
+        <v>1.022093723826187</v>
       </c>
       <c r="F13">
-        <v>0.8910438594058583</v>
+        <v>1.024599679899961</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.021415648295997</v>
+        <v>1.029474403867268</v>
       </c>
       <c r="J13">
-        <v>0.9769814504322002</v>
+        <v>1.027900401934155</v>
       </c>
       <c r="K13">
-        <v>0.9908968423944668</v>
+        <v>1.029439691263814</v>
       </c>
       <c r="L13">
-        <v>0.9757044591948106</v>
+        <v>1.025749045145744</v>
       </c>
       <c r="M13">
-        <v>0.9085530214983298</v>
+        <v>1.028245353839836</v>
       </c>
       <c r="N13">
-        <v>0.9783688761531526</v>
+        <v>1.029360138406725</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9462911409431793</v>
+        <v>1.021411190984946</v>
       </c>
       <c r="D14">
-        <v>0.9764524477845905</v>
+        <v>1.025979854839739</v>
       </c>
       <c r="E14">
-        <v>0.9610785242808817</v>
+        <v>1.022306725329315</v>
       </c>
       <c r="F14">
-        <v>0.8941408829552024</v>
+        <v>1.025005857741694</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.021937156709446</v>
+        <v>1.029535646143166</v>
       </c>
       <c r="J14">
-        <v>0.9781216372611755</v>
+        <v>1.028085886650192</v>
       </c>
       <c r="K14">
-        <v>0.9918501041396336</v>
+        <v>1.029588269187343</v>
       </c>
       <c r="L14">
-        <v>0.9767917534280834</v>
+        <v>1.02592912380695</v>
       </c>
       <c r="M14">
-        <v>0.9113994013838407</v>
+        <v>1.028617969411827</v>
       </c>
       <c r="N14">
-        <v>0.9795106821782064</v>
+        <v>1.029545886532335</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9472394206193195</v>
+        <v>1.02156403230772</v>
       </c>
       <c r="D15">
-        <v>0.9771411423394731</v>
+        <v>1.026091483290987</v>
       </c>
       <c r="E15">
-        <v>0.961854103749432</v>
+        <v>1.022437933721838</v>
       </c>
       <c r="F15">
-        <v>0.896024188160862</v>
+        <v>1.025255924412279</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.022255338526881</v>
+        <v>1.029573320281123</v>
       </c>
       <c r="J15">
-        <v>0.978819078682082</v>
+        <v>1.0282001211781</v>
       </c>
       <c r="K15">
-        <v>0.9924330062623506</v>
+        <v>1.029679758937888</v>
       </c>
       <c r="L15">
-        <v>0.977456961847891</v>
+        <v>1.026040034255132</v>
       </c>
       <c r="M15">
-        <v>0.9131302024773431</v>
+        <v>1.028847352152542</v>
       </c>
       <c r="N15">
-        <v>0.9802091140459279</v>
+        <v>1.029660283286375</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9526615120494337</v>
+        <v>1.022453012089584</v>
       </c>
       <c r="D16">
-        <v>0.9810793768952432</v>
+        <v>1.026740607122472</v>
       </c>
       <c r="E16">
-        <v>0.9662928734199433</v>
+        <v>1.023201187656796</v>
       </c>
       <c r="F16">
-        <v>0.9066335630827956</v>
+        <v>1.026708510400446</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.024061886429924</v>
+        <v>1.029791698471463</v>
       </c>
       <c r="J16">
-        <v>0.9828046218702496</v>
+        <v>1.028864276635266</v>
       </c>
       <c r="K16">
-        <v>0.9957611534024402</v>
+        <v>1.030211448476521</v>
       </c>
       <c r="L16">
-        <v>0.9812600517466959</v>
+        <v>1.026684945079944</v>
       </c>
       <c r="M16">
-        <v>0.9228789733560392</v>
+        <v>1.030179468439995</v>
       </c>
       <c r="N16">
-        <v>0.9842003171625713</v>
+        <v>1.030325381920471</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.955981510591611</v>
+        <v>1.023010104528222</v>
       </c>
       <c r="D17">
-        <v>0.9834911972301662</v>
+        <v>1.027147260037298</v>
       </c>
       <c r="E17">
-        <v>0.9690142658416492</v>
+        <v>1.023679578515051</v>
       </c>
       <c r="F17">
-        <v>0.913004862017932</v>
+        <v>1.027617154113399</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.025157536537225</v>
+        <v>1.029927890616399</v>
       </c>
       <c r="J17">
-        <v>0.9852430620598273</v>
+        <v>1.029280238603009</v>
       </c>
       <c r="K17">
-        <v>0.9977950126160163</v>
+        <v>1.030544245444357</v>
       </c>
       <c r="L17">
-        <v>0.9835883117410638</v>
+        <v>1.027088925630004</v>
       </c>
       <c r="M17">
-        <v>0.9287319713663706</v>
+        <v>1.031012471504329</v>
       </c>
       <c r="N17">
-        <v>0.9866422202169108</v>
+        <v>1.030741934601919</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9578904392466836</v>
+        <v>1.023334855037744</v>
       </c>
       <c r="D18">
-        <v>0.984878098042769</v>
+        <v>1.027384266410847</v>
       </c>
       <c r="E18">
-        <v>0.9705802114235039</v>
+        <v>1.023958481684162</v>
       </c>
       <c r="F18">
-        <v>0.9166282553485846</v>
+        <v>1.028146255501847</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.025783953350449</v>
+        <v>1.030007045535884</v>
       </c>
       <c r="J18">
-        <v>0.9866444336802467</v>
+        <v>1.029522631842806</v>
       </c>
       <c r="K18">
-        <v>0.9989630623243282</v>
+        <v>1.030738103432908</v>
       </c>
       <c r="L18">
-        <v>0.9849268565827426</v>
+        <v>1.027324362656798</v>
       </c>
       <c r="M18">
-        <v>0.9320600103229632</v>
+        <v>1.03149742563672</v>
       </c>
       <c r="N18">
-        <v>0.9880455819457709</v>
+        <v>1.030984672067919</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9585368048227048</v>
+        <v>1.023445554261123</v>
       </c>
       <c r="D19">
-        <v>0.9853477311131128</v>
+        <v>1.027465047854225</v>
       </c>
       <c r="E19">
-        <v>0.9711106416793659</v>
+        <v>1.024053557909469</v>
       </c>
       <c r="F19">
-        <v>0.9178487770291344</v>
+        <v>1.0283265149674</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.025995473707728</v>
+        <v>1.030033987327627</v>
       </c>
       <c r="J19">
-        <v>0.98711882593957</v>
+        <v>1.029605242808246</v>
       </c>
       <c r="K19">
-        <v>0.9993583367597371</v>
+        <v>1.030804160602918</v>
       </c>
       <c r="L19">
-        <v>0.9853800621555401</v>
+        <v>1.027404607203486</v>
       </c>
       <c r="M19">
-        <v>0.9331809373558778</v>
+        <v>1.031662627299865</v>
       </c>
       <c r="N19">
-        <v>0.9885206478965164</v>
+        <v>1.031067400350406</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9556281934262053</v>
+        <v>1.022950353715708</v>
       </c>
       <c r="D20">
-        <v>0.9832345131650424</v>
+        <v>1.027103649454173</v>
       </c>
       <c r="E20">
-        <v>0.9687245266053992</v>
+        <v>1.023628265625254</v>
       </c>
       <c r="F20">
-        <v>0.9123310822855486</v>
+        <v>1.02751975816188</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.025041311197154</v>
+        <v>1.029913307857311</v>
       </c>
       <c r="J20">
-        <v>0.9849836321685436</v>
+        <v>1.029235633694633</v>
       </c>
       <c r="K20">
-        <v>0.9975787118634279</v>
+        <v>1.030508566088202</v>
       </c>
       <c r="L20">
-        <v>0.9833405521757149</v>
+        <v>1.027045602864852</v>
       </c>
       <c r="M20">
-        <v>0.9281130638624024</v>
+        <v>1.030923193885314</v>
       </c>
       <c r="N20">
-        <v>0.9863824219054247</v>
+        <v>1.030697266349456</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9458361322971388</v>
+        <v>1.021338130785374</v>
       </c>
       <c r="D21">
-        <v>0.9761220009207431</v>
+        <v>1.025926492353662</v>
       </c>
       <c r="E21">
-        <v>0.960706458102596</v>
+        <v>1.022244007720729</v>
       </c>
       <c r="F21">
-        <v>0.8932341391720042</v>
+        <v>1.024886288761973</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.021784245268245</v>
+        <v>1.029517624169839</v>
       </c>
       <c r="J21">
-        <v>0.9777869446400963</v>
+        <v>1.028031276187813</v>
       </c>
       <c r="K21">
-        <v>0.9915703238468278</v>
+        <v>1.029544527954444</v>
       </c>
       <c r="L21">
-        <v>0.9764725615182287</v>
+        <v>1.02587610388184</v>
       </c>
       <c r="M21">
-        <v>0.9105660586317131</v>
+        <v>1.028508284742588</v>
       </c>
       <c r="N21">
-        <v>0.9791755142552154</v>
+        <v>1.029491198516835</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9393925072271661</v>
+        <v>1.020322669092817</v>
       </c>
       <c r="D22">
-        <v>0.9714426725481872</v>
+        <v>1.025184637380647</v>
       </c>
       <c r="E22">
-        <v>0.9554427406986588</v>
+        <v>1.021372415043879</v>
       </c>
       <c r="F22">
-        <v>0.8801652324101411</v>
+        <v>1.023222137076326</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.019601695588662</v>
+        <v>1.029266258470485</v>
       </c>
       <c r="J22">
-        <v>0.9730441945950068</v>
+        <v>1.027271926779519</v>
       </c>
       <c r="K22">
-        <v>0.9876019070625268</v>
+        <v>1.028936045288116</v>
       </c>
       <c r="L22">
-        <v>0.9719517603776872</v>
+        <v>1.025138966528167</v>
       </c>
       <c r="M22">
-        <v>0.8985536824416066</v>
+        <v>1.026981325095379</v>
       </c>
       <c r="N22">
-        <v>0.9744260289610607</v>
+        <v>1.028730770745282</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9428377226989191</v>
+        <v>1.020861157574898</v>
       </c>
       <c r="D23">
-        <v>0.9739445128562996</v>
+        <v>1.025578074704005</v>
       </c>
       <c r="E23">
-        <v>0.9582558610248528</v>
+        <v>1.021834584020175</v>
       </c>
       <c r="F23">
-        <v>0.8872071763907936</v>
+        <v>1.024105145893802</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.020772654986727</v>
+        <v>1.029399758466228</v>
       </c>
       <c r="J23">
-        <v>0.97558069977943</v>
+        <v>1.027674675704054</v>
       </c>
       <c r="K23">
-        <v>0.9897251762483189</v>
+        <v>1.029258838496286</v>
       </c>
       <c r="L23">
-        <v>0.9743690265532948</v>
+        <v>1.025529912266876</v>
       </c>
       <c r="M23">
-        <v>0.9050266240575623</v>
+        <v>1.027791626166164</v>
       </c>
       <c r="N23">
-        <v>0.976966136273787</v>
+        <v>1.029134091619487</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9557879270499119</v>
+        <v>1.02297735312965</v>
       </c>
       <c r="D24">
-        <v>0.9833505587704758</v>
+        <v>1.027123355778718</v>
       </c>
       <c r="E24">
-        <v>0.968855513112893</v>
+        <v>1.02365145212608</v>
       </c>
       <c r="F24">
-        <v>0.9126358191395957</v>
+        <v>1.027563769963922</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.025093867332799</v>
+        <v>1.029919898054891</v>
       </c>
       <c r="J24">
-        <v>0.9851009217474594</v>
+        <v>1.029255789444627</v>
       </c>
       <c r="K24">
-        <v>0.9976765050442833</v>
+        <v>1.030524688847238</v>
       </c>
       <c r="L24">
-        <v>0.9834525640117543</v>
+        <v>1.027065179169581</v>
       </c>
       <c r="M24">
-        <v>0.9283929849940702</v>
+        <v>1.030963537446975</v>
       </c>
       <c r="N24">
-        <v>0.986499878048996</v>
+        <v>1.030717450722928</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9697454109236616</v>
+        <v>1.025425576431099</v>
       </c>
       <c r="D25">
-        <v>0.9934938461745118</v>
+        <v>1.02890923788948</v>
       </c>
       <c r="E25">
-        <v>0.9803248636093367</v>
+        <v>1.025754588054932</v>
       </c>
       <c r="F25">
-        <v>0.9385433203643929</v>
+        <v>1.031542354839387</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.029616662002958</v>
+        <v>1.030512377769512</v>
       </c>
       <c r="J25">
-        <v>0.9953356959478531</v>
+        <v>1.031081571508595</v>
       </c>
       <c r="K25">
-        <v>1.006194008475058</v>
+        <v>1.031983581523528</v>
       </c>
       <c r="L25">
-        <v>0.9932364877717303</v>
+        <v>1.028839025519172</v>
       </c>
       <c r="M25">
-        <v>0.9521769916506846</v>
+        <v>1.034608325085146</v>
       </c>
       <c r="N25">
-        <v>0.9967491868026989</v>
+        <v>1.032545825606846</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_242/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_242/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.02737254708353</v>
+        <v>0.9801684449047499</v>
       </c>
       <c r="D2">
-        <v>1.030327954868506</v>
+        <v>1.001072541039749</v>
       </c>
       <c r="E2">
-        <v>1.027428060231597</v>
+        <v>0.9889205841181555</v>
       </c>
       <c r="F2">
-        <v>1.034689124345579</v>
+        <v>0.95708535065116</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.030976120730964</v>
+        <v>1.032904049047615</v>
       </c>
       <c r="J2">
-        <v>1.032530785546686</v>
+        <v>1.002958937959411</v>
       </c>
       <c r="K2">
-        <v>1.033139285544224</v>
+        <v>1.012516953858857</v>
       </c>
       <c r="L2">
-        <v>1.03024781829231</v>
+        <v>1.000536461736445</v>
       </c>
       <c r="M2">
-        <v>1.037487877664863</v>
+        <v>0.9691767996123799</v>
       </c>
       <c r="N2">
-        <v>1.033997097695105</v>
+        <v>1.004383254692312</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.028783061092676</v>
+        <v>0.9873846022802634</v>
       </c>
       <c r="D3">
-        <v>1.031354870127484</v>
+        <v>1.006320914874534</v>
       </c>
       <c r="E3">
-        <v>1.028640958637079</v>
+        <v>0.9948871110844977</v>
       </c>
       <c r="F3">
-        <v>1.03695936837596</v>
+        <v>0.9695838135222217</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.031307795876543</v>
+        <v>1.035133162741225</v>
       </c>
       <c r="J3">
-        <v>1.033579089267071</v>
+        <v>1.008225185236359</v>
       </c>
       <c r="K3">
-        <v>1.033973945271779</v>
+        <v>1.01687355225902</v>
       </c>
       <c r="L3">
-        <v>1.031267344645178</v>
+        <v>1.005585833017911</v>
       </c>
       <c r="M3">
-        <v>1.039563476793635</v>
+        <v>0.9806212589503632</v>
       </c>
       <c r="N3">
-        <v>1.035046890127009</v>
+        <v>1.009656980644439</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.029694348594015</v>
+        <v>0.9919073963117302</v>
       </c>
       <c r="D4">
-        <v>1.032017906832686</v>
+        <v>1.009610678278835</v>
       </c>
       <c r="E4">
-        <v>1.029424810083475</v>
+        <v>0.9986331726302102</v>
       </c>
       <c r="F4">
-        <v>1.03842187591042</v>
+        <v>0.977290883318358</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.031520100847797</v>
+        <v>1.036509777348565</v>
       </c>
       <c r="J4">
-        <v>1.034255621116603</v>
+        <v>1.011520401802014</v>
       </c>
       <c r="K4">
-        <v>1.034511983723498</v>
+        <v>1.019594478377495</v>
       </c>
       <c r="L4">
-        <v>1.031925517281157</v>
+        <v>1.008748122094927</v>
       </c>
       <c r="M4">
-        <v>1.040899731321766</v>
+        <v>0.9876713411558437</v>
       </c>
       <c r="N4">
-        <v>1.035724382729366</v>
+        <v>1.012956876795585</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.030077123729111</v>
+        <v>0.9937758391278627</v>
       </c>
       <c r="D5">
-        <v>1.032296305930334</v>
+        <v>1.010969747940702</v>
       </c>
       <c r="E5">
-        <v>1.029754113152411</v>
+        <v>1.000182199113533</v>
       </c>
       <c r="F5">
-        <v>1.039035196907896</v>
+        <v>0.9804481166010273</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.031608803767672</v>
+        <v>1.037073690479895</v>
       </c>
       <c r="J5">
-        <v>1.034539611768453</v>
+        <v>1.01288037987631</v>
       </c>
       <c r="K5">
-        <v>1.034737690674292</v>
+        <v>1.020716230382904</v>
       </c>
       <c r="L5">
-        <v>1.032201851930859</v>
+        <v>1.010053880640855</v>
       </c>
       <c r="M5">
-        <v>1.041459900154175</v>
+        <v>0.9905576991350784</v>
       </c>
       <c r="N5">
-        <v>1.036008776680516</v>
+        <v>1.014318786194737</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.030141374209926</v>
+        <v>0.994087685612652</v>
       </c>
       <c r="D6">
-        <v>1.032343030470986</v>
+        <v>1.011196578128186</v>
       </c>
       <c r="E6">
-        <v>1.029809391365653</v>
+        <v>1.000440818065791</v>
       </c>
       <c r="F6">
-        <v>1.039138088301377</v>
+        <v>0.980973590166656</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.031623665212082</v>
+        <v>1.037167530135802</v>
       </c>
       <c r="J6">
-        <v>1.034587270378905</v>
+        <v>1.013107283609715</v>
       </c>
       <c r="K6">
-        <v>1.034775559587805</v>
+        <v>1.020903316806024</v>
       </c>
       <c r="L6">
-        <v>1.032248228700479</v>
+        <v>1.010271775253547</v>
       </c>
       <c r="M6">
-        <v>1.041553862573208</v>
+        <v>0.9910379860972973</v>
       </c>
       <c r="N6">
-        <v>1.036056502971662</v>
+        <v>1.01454601215747</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.029699464541084</v>
+        <v>0.9919324892934541</v>
       </c>
       <c r="D7">
-        <v>1.032021628150423</v>
+        <v>1.009628930463764</v>
       </c>
       <c r="E7">
-        <v>1.029429211135862</v>
+        <v>0.9986539702012884</v>
       </c>
       <c r="F7">
-        <v>1.038430077047342</v>
+        <v>0.9773333858771193</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.031521288257629</v>
+        <v>1.036517369452562</v>
       </c>
       <c r="J7">
-        <v>1.03425941746945</v>
+        <v>1.011538671463904</v>
       </c>
       <c r="K7">
-        <v>1.034515001527903</v>
+        <v>1.019609552533538</v>
       </c>
       <c r="L7">
-        <v>1.031929211090273</v>
+        <v>1.008765660873197</v>
       </c>
       <c r="M7">
-        <v>1.040907222536397</v>
+        <v>0.9877102041599811</v>
       </c>
       <c r="N7">
-        <v>1.03572818447347</v>
+        <v>1.01297517240249</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.027849533117296</v>
+        <v>0.9826388831707563</v>
       </c>
       <c r="D8">
-        <v>1.030675307949818</v>
+        <v>1.002869214639654</v>
       </c>
       <c r="E8">
-        <v>1.027838170008886</v>
+        <v>0.990961785273647</v>
       </c>
       <c r="F8">
-        <v>1.035457730655642</v>
+        <v>0.9613933583736562</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.031088692336402</v>
+        <v>1.033671604604737</v>
       </c>
       <c r="J8">
-        <v>1.032885438734724</v>
+        <v>1.004762967254286</v>
       </c>
       <c r="K8">
-        <v>1.0334217882787</v>
+        <v>1.014010460354293</v>
       </c>
       <c r="L8">
-        <v>1.030592691592625</v>
+        <v>1.002265592957976</v>
       </c>
       <c r="M8">
-        <v>1.038190764435993</v>
+        <v>0.9731229836891299</v>
       </c>
       <c r="N8">
-        <v>1.034352254531343</v>
+        <v>1.00618984591571</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.024578595164915</v>
+        <v>0.9650302677678807</v>
       </c>
       <c r="D9">
-        <v>1.028291632329255</v>
+        <v>0.9900664937210749</v>
       </c>
       <c r="E9">
-        <v>1.025026845076686</v>
+        <v>0.9764450012929811</v>
       </c>
       <c r="F9">
-        <v>1.030168673576329</v>
+        <v>0.9299414837801703</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030308559249344</v>
+        <v>1.028104098756198</v>
       </c>
       <c r="J9">
-        <v>1.030450354759341</v>
+        <v>0.9918813465701457</v>
       </c>
       <c r="K9">
-        <v>1.031479562551685</v>
+        <v>1.003322817692605</v>
       </c>
       <c r="L9">
-        <v>1.028225639175893</v>
+        <v>0.9899321636728575</v>
       </c>
       <c r="M9">
-        <v>1.033350391973713</v>
+        <v>0.9442836021670155</v>
       </c>
       <c r="N9">
-        <v>1.031913712457406</v>
+        <v>0.9932899318526558</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.022390029082764</v>
+        <v>0.952282473172018</v>
       </c>
       <c r="D10">
-        <v>1.026694625936086</v>
+        <v>0.9808040439984141</v>
       </c>
       <c r="E10">
-        <v>1.023147106582645</v>
+        <v>0.9659823452428068</v>
       </c>
       <c r="F10">
-        <v>1.026605702730362</v>
+        <v>0.9059003355042532</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029776268973884</v>
+        <v>1.023936294243723</v>
       </c>
       <c r="J10">
-        <v>1.028817237606626</v>
+        <v>0.9825261345548588</v>
       </c>
       <c r="K10">
-        <v>1.030173804330136</v>
+        <v>0.9955287580742018</v>
       </c>
       <c r="L10">
-        <v>1.026639264455772</v>
+        <v>0.9809942174664812</v>
       </c>
       <c r="M10">
-        <v>1.030085205260845</v>
+        <v>0.9222053154669319</v>
       </c>
       <c r="N10">
-        <v>1.030278276091014</v>
+        <v>0.9839214343632496</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.021440368298322</v>
+        <v>0.9464725414724346</v>
       </c>
       <c r="D11">
-        <v>1.026001165208688</v>
+        <v>0.9765841897602586</v>
       </c>
       <c r="E11">
-        <v>1.022331772544813</v>
+        <v>0.9612268715630161</v>
       </c>
       <c r="F11">
-        <v>1.025053602692837</v>
+        <v>0.8945018178250668</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029542841007108</v>
+        <v>1.021998075230639</v>
       </c>
       <c r="J11">
-        <v>1.028107695006803</v>
+        <v>0.9782550631174159</v>
       </c>
       <c r="K11">
-        <v>1.029605736253679</v>
+        <v>0.9919616293997685</v>
       </c>
       <c r="L11">
-        <v>1.02595029725261</v>
+        <v>0.976919005784681</v>
       </c>
       <c r="M11">
-        <v>1.028661766445323</v>
+        <v>0.9117311142326824</v>
       </c>
       <c r="N11">
-        <v>1.029567725859313</v>
+        <v>0.979644297514467</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.021087312861179</v>
+        <v>0.9442654970321634</v>
       </c>
       <c r="D12">
-        <v>1.025743284600251</v>
+        <v>0.9749813660460138</v>
       </c>
       <c r="E12">
-        <v>1.022028704888554</v>
+        <v>0.9594225112737456</v>
       </c>
       <c r="F12">
-        <v>1.024475638458145</v>
+        <v>0.8900884490184047</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029455689264823</v>
+        <v>1.021255208897303</v>
       </c>
       <c r="J12">
-        <v>1.02784377311111</v>
+        <v>0.9766314135093165</v>
       </c>
       <c r="K12">
-        <v>1.02939432417669</v>
+        <v>0.9906041098884195</v>
       </c>
       <c r="L12">
-        <v>1.025694068936446</v>
+        <v>0.9753707097032864</v>
       </c>
       <c r="M12">
-        <v>1.028131553481255</v>
+        <v>0.9076748997202149</v>
       </c>
       <c r="N12">
-        <v>1.029303429164256</v>
+        <v>0.9780183421376885</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.021163058586881</v>
+        <v>0.9447412312149807</v>
       </c>
       <c r="D13">
-        <v>1.025798614467266</v>
+        <v>0.9753268518715269</v>
       </c>
       <c r="E13">
-        <v>1.022093723826187</v>
+        <v>0.9598113472351208</v>
       </c>
       <c r="F13">
-        <v>1.024599679899961</v>
+        <v>0.8910438594058591</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029474403867268</v>
+        <v>1.021415648295997</v>
       </c>
       <c r="J13">
-        <v>1.027900401934155</v>
+        <v>0.9769814504322002</v>
       </c>
       <c r="K13">
-        <v>1.029439691263814</v>
+        <v>0.9908968423944666</v>
       </c>
       <c r="L13">
-        <v>1.025749045145744</v>
+        <v>0.9757044591948107</v>
       </c>
       <c r="M13">
-        <v>1.028245353839836</v>
+        <v>0.9085530214983305</v>
       </c>
       <c r="N13">
-        <v>1.029360138406725</v>
+        <v>0.9783688761531529</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.021411190984946</v>
+        <v>0.9462911409431802</v>
       </c>
       <c r="D14">
-        <v>1.025979854839739</v>
+        <v>0.9764524477845915</v>
       </c>
       <c r="E14">
-        <v>1.022306725329315</v>
+        <v>0.9610785242808823</v>
       </c>
       <c r="F14">
-        <v>1.025005857741694</v>
+        <v>0.894140882955203</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029535646143166</v>
+        <v>1.021937156709446</v>
       </c>
       <c r="J14">
-        <v>1.028085886650192</v>
+        <v>0.9781216372611764</v>
       </c>
       <c r="K14">
-        <v>1.029588269187343</v>
+        <v>0.9918501041396346</v>
       </c>
       <c r="L14">
-        <v>1.02592912380695</v>
+        <v>0.9767917534280841</v>
       </c>
       <c r="M14">
-        <v>1.028617969411827</v>
+        <v>0.9113994013838413</v>
       </c>
       <c r="N14">
-        <v>1.029545886532335</v>
+        <v>0.979510682178207</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.02156403230772</v>
+        <v>0.9472394206193181</v>
       </c>
       <c r="D15">
-        <v>1.026091483290987</v>
+        <v>0.9771411423394722</v>
       </c>
       <c r="E15">
-        <v>1.022437933721838</v>
+        <v>0.961854103749431</v>
       </c>
       <c r="F15">
-        <v>1.025255924412279</v>
+        <v>0.8960241881608609</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029573320281123</v>
+        <v>1.02225533852688</v>
       </c>
       <c r="J15">
-        <v>1.0282001211781</v>
+        <v>0.9788190786820807</v>
       </c>
       <c r="K15">
-        <v>1.029679758937888</v>
+        <v>0.9924330062623496</v>
       </c>
       <c r="L15">
-        <v>1.026040034255132</v>
+        <v>0.9774569618478901</v>
       </c>
       <c r="M15">
-        <v>1.028847352152542</v>
+        <v>0.9131302024773421</v>
       </c>
       <c r="N15">
-        <v>1.029660283286375</v>
+        <v>0.9802091140459268</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.022453012089584</v>
+        <v>0.9526615120494339</v>
       </c>
       <c r="D16">
-        <v>1.026740607122472</v>
+        <v>0.9810793768952433</v>
       </c>
       <c r="E16">
-        <v>1.023201187656796</v>
+        <v>0.9662928734199433</v>
       </c>
       <c r="F16">
-        <v>1.026708510400446</v>
+        <v>0.9066335630827964</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029791698471463</v>
+        <v>1.024061886429924</v>
       </c>
       <c r="J16">
-        <v>1.028864276635266</v>
+        <v>0.9828046218702496</v>
       </c>
       <c r="K16">
-        <v>1.030211448476521</v>
+        <v>0.9957611534024402</v>
       </c>
       <c r="L16">
-        <v>1.026684945079944</v>
+        <v>0.9812600517466958</v>
       </c>
       <c r="M16">
-        <v>1.030179468439995</v>
+        <v>0.9228789733560396</v>
       </c>
       <c r="N16">
-        <v>1.030325381920471</v>
+        <v>0.9842003171625715</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.023010104528222</v>
+        <v>0.9559815105916087</v>
       </c>
       <c r="D17">
-        <v>1.027147260037298</v>
+        <v>0.9834911972301643</v>
       </c>
       <c r="E17">
-        <v>1.023679578515051</v>
+        <v>0.969014265841647</v>
       </c>
       <c r="F17">
-        <v>1.027617154113399</v>
+        <v>0.9130048620179309</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029927890616399</v>
+        <v>1.025157536537224</v>
       </c>
       <c r="J17">
-        <v>1.029280238603009</v>
+        <v>0.9852430620598249</v>
       </c>
       <c r="K17">
-        <v>1.030544245444357</v>
+        <v>0.9977950126160144</v>
       </c>
       <c r="L17">
-        <v>1.027088925630004</v>
+        <v>0.9835883117410618</v>
       </c>
       <c r="M17">
-        <v>1.031012471504329</v>
+        <v>0.9287319713663695</v>
       </c>
       <c r="N17">
-        <v>1.030741934601919</v>
+        <v>0.9866422202169086</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.023334855037744</v>
+        <v>0.9578904392466837</v>
       </c>
       <c r="D18">
-        <v>1.027384266410847</v>
+        <v>0.9848780980427692</v>
       </c>
       <c r="E18">
-        <v>1.023958481684162</v>
+        <v>0.970580211423504</v>
       </c>
       <c r="F18">
-        <v>1.028146255501847</v>
+        <v>0.9166282553485844</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030007045535884</v>
+        <v>1.025783953350448</v>
       </c>
       <c r="J18">
-        <v>1.029522631842806</v>
+        <v>0.9866444336802468</v>
       </c>
       <c r="K18">
-        <v>1.030738103432908</v>
+        <v>0.9989630623243283</v>
       </c>
       <c r="L18">
-        <v>1.027324362656798</v>
+        <v>0.9849268565827427</v>
       </c>
       <c r="M18">
-        <v>1.03149742563672</v>
+        <v>0.9320600103229626</v>
       </c>
       <c r="N18">
-        <v>1.030984672067919</v>
+        <v>0.988045581945771</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.023445554261123</v>
+        <v>0.9585368048227055</v>
       </c>
       <c r="D19">
-        <v>1.027465047854225</v>
+        <v>0.9853477311131135</v>
       </c>
       <c r="E19">
-        <v>1.024053557909469</v>
+        <v>0.9711106416793668</v>
       </c>
       <c r="F19">
-        <v>1.0283265149674</v>
+        <v>0.9178487770291338</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030033987327627</v>
+        <v>1.025995473707728</v>
       </c>
       <c r="J19">
-        <v>1.029605242808246</v>
+        <v>0.987118825939571</v>
       </c>
       <c r="K19">
-        <v>1.030804160602918</v>
+        <v>0.9993583367597376</v>
       </c>
       <c r="L19">
-        <v>1.027404607203486</v>
+        <v>0.985380062155541</v>
       </c>
       <c r="M19">
-        <v>1.031662627299865</v>
+        <v>0.9331809373558774</v>
       </c>
       <c r="N19">
-        <v>1.031067400350406</v>
+        <v>0.9885206478965173</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.022950353715708</v>
+        <v>0.9556281934262045</v>
       </c>
       <c r="D20">
-        <v>1.027103649454173</v>
+        <v>0.9832345131650417</v>
       </c>
       <c r="E20">
-        <v>1.023628265625254</v>
+        <v>0.9687245266053983</v>
       </c>
       <c r="F20">
-        <v>1.02751975816188</v>
+        <v>0.9123310822855485</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029913307857311</v>
+        <v>1.025041311197154</v>
       </c>
       <c r="J20">
-        <v>1.029235633694633</v>
+        <v>0.9849836321685428</v>
       </c>
       <c r="K20">
-        <v>1.030508566088202</v>
+        <v>0.9975787118634274</v>
       </c>
       <c r="L20">
-        <v>1.027045602864852</v>
+        <v>0.9833405521757138</v>
       </c>
       <c r="M20">
-        <v>1.030923193885314</v>
+        <v>0.9281130638624023</v>
       </c>
       <c r="N20">
-        <v>1.030697266349456</v>
+        <v>0.9863824219054237</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.021338130785374</v>
+        <v>0.9458361322971369</v>
       </c>
       <c r="D21">
-        <v>1.025926492353662</v>
+        <v>0.9761220009207412</v>
       </c>
       <c r="E21">
-        <v>1.022244007720729</v>
+        <v>0.9607064581025946</v>
       </c>
       <c r="F21">
-        <v>1.024886288761973</v>
+        <v>0.8932341391720029</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029517624169839</v>
+        <v>1.021784245268244</v>
       </c>
       <c r="J21">
-        <v>1.028031276187813</v>
+        <v>0.9777869446400943</v>
       </c>
       <c r="K21">
-        <v>1.029544527954444</v>
+        <v>0.9915703238468259</v>
       </c>
       <c r="L21">
-        <v>1.02587610388184</v>
+        <v>0.9764725615182271</v>
       </c>
       <c r="M21">
-        <v>1.028508284742588</v>
+        <v>0.910566058631712</v>
       </c>
       <c r="N21">
-        <v>1.029491198516835</v>
+        <v>0.9791755142552134</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.020322669092817</v>
+        <v>0.9393925072271676</v>
       </c>
       <c r="D22">
-        <v>1.025184637380647</v>
+        <v>0.9714426725481884</v>
       </c>
       <c r="E22">
-        <v>1.021372415043879</v>
+        <v>0.9554427406986601</v>
       </c>
       <c r="F22">
-        <v>1.023222137076326</v>
+        <v>0.8801652324101411</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029266258470485</v>
+        <v>1.019601695588663</v>
       </c>
       <c r="J22">
-        <v>1.027271926779519</v>
+        <v>0.973044194595008</v>
       </c>
       <c r="K22">
-        <v>1.028936045288116</v>
+        <v>0.987601907062528</v>
       </c>
       <c r="L22">
-        <v>1.025138966528167</v>
+        <v>0.9719517603776884</v>
       </c>
       <c r="M22">
-        <v>1.026981325095379</v>
+        <v>0.8985536824416067</v>
       </c>
       <c r="N22">
-        <v>1.028730770745282</v>
+        <v>0.9744260289610621</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.020861157574898</v>
+        <v>0.9428377226989201</v>
       </c>
       <c r="D23">
-        <v>1.025578074704005</v>
+        <v>0.9739445128563003</v>
       </c>
       <c r="E23">
-        <v>1.021834584020175</v>
+        <v>0.9582558610248537</v>
       </c>
       <c r="F23">
-        <v>1.024105145893802</v>
+        <v>0.8872071763907931</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029399758466228</v>
+        <v>1.020772654986728</v>
       </c>
       <c r="J23">
-        <v>1.027674675704054</v>
+        <v>0.9755806997794308</v>
       </c>
       <c r="K23">
-        <v>1.029258838496286</v>
+        <v>0.9897251762483197</v>
       </c>
       <c r="L23">
-        <v>1.025529912266876</v>
+        <v>0.9743690265532955</v>
       </c>
       <c r="M23">
-        <v>1.027791626166164</v>
+        <v>0.9050266240575618</v>
       </c>
       <c r="N23">
-        <v>1.029134091619487</v>
+        <v>0.9769661362737879</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.02297735312965</v>
+        <v>0.9557879270499102</v>
       </c>
       <c r="D24">
-        <v>1.027123355778718</v>
+        <v>0.9833505587704742</v>
       </c>
       <c r="E24">
-        <v>1.02365145212608</v>
+        <v>0.9688555131128908</v>
       </c>
       <c r="F24">
-        <v>1.027563769963922</v>
+        <v>0.9126358191395946</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029919898054891</v>
+        <v>1.025093867332799</v>
       </c>
       <c r="J24">
-        <v>1.029255789444627</v>
+        <v>0.9851009217474578</v>
       </c>
       <c r="K24">
-        <v>1.030524688847238</v>
+        <v>0.9976765050442818</v>
       </c>
       <c r="L24">
-        <v>1.027065179169581</v>
+        <v>0.9834525640117524</v>
       </c>
       <c r="M24">
-        <v>1.030963537446975</v>
+        <v>0.9283929849940693</v>
       </c>
       <c r="N24">
-        <v>1.030717450722928</v>
+        <v>0.9864998780489942</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.025425576431099</v>
+        <v>0.9697454109236591</v>
       </c>
       <c r="D25">
-        <v>1.02890923788948</v>
+        <v>0.9934938461745101</v>
       </c>
       <c r="E25">
-        <v>1.025754588054932</v>
+        <v>0.9803248636093348</v>
       </c>
       <c r="F25">
-        <v>1.031542354839387</v>
+        <v>0.9385433203643919</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.030512377769512</v>
+        <v>1.029616662002957</v>
       </c>
       <c r="J25">
-        <v>1.031081571508595</v>
+        <v>0.9953356959478509</v>
       </c>
       <c r="K25">
-        <v>1.031983581523528</v>
+        <v>1.006194008475057</v>
       </c>
       <c r="L25">
-        <v>1.028839025519172</v>
+        <v>0.9932364877717283</v>
       </c>
       <c r="M25">
-        <v>1.034608325085146</v>
+        <v>0.9521769916506834</v>
       </c>
       <c r="N25">
-        <v>1.032545825606846</v>
+        <v>0.9967491868026969</v>
       </c>
     </row>
   </sheetData>
